--- a/CS Website Updated URIs.xlsx
+++ b/CS Website Updated URIs.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="96">
   <si>
     <t>Old Output URI</t>
   </si>
@@ -92,9 +92,6 @@
     <t>…/admission-requirements/</t>
   </si>
   <si>
-    <t>(omitted for both pages above)</t>
-  </si>
-  <si>
     <t>…/graduate-projects/</t>
   </si>
   <si>
@@ -164,12 +161,6 @@
     <t>Undergraduate Programs</t>
   </si>
   <si>
-    <t>BS Computer Science</t>
-  </si>
-  <si>
-    <t>BA Computer Science</t>
-  </si>
-  <si>
     <t>MS Software Engineering</t>
   </si>
   <si>
@@ -179,9 +170,6 @@
     <t>BSCS - Business</t>
   </si>
   <si>
-    <t>5-Year Fast Track MSCS</t>
-  </si>
-  <si>
     <t>Transfer Students</t>
   </si>
   <si>
@@ -218,9 +206,6 @@
     <t>Study Abroad</t>
   </si>
   <si>
-    <t>Activiites and News</t>
-  </si>
-  <si>
     <t>News</t>
   </si>
   <si>
@@ -297,13 +282,46 @@
   </si>
   <si>
     <t>Below is a table of URIs on the computer Science Website all will begin with</t>
+  </si>
+  <si>
+    <t>(obsolete for both pages above)</t>
+  </si>
+  <si>
+    <t>Black Text = Page is visible on LHS menu</t>
+  </si>
+  <si>
+    <t>Grey Text = Page is clickable from parent page but not visible on LHS menu</t>
+  </si>
+  <si>
+    <t>Red Text = obsolete page (to be deleted)</t>
+  </si>
+  <si>
+    <t>BA in Computer Science</t>
+  </si>
+  <si>
+    <t>BS in Computer Science</t>
+  </si>
+  <si>
+    <t>5-Year Fast Track BS/MS</t>
+  </si>
+  <si>
+    <t>Activites and News</t>
+  </si>
+  <si>
+    <t>Highlighted Boxes indicate an existing page with a new title.</t>
+  </si>
+  <si>
+    <t>Section Customizations</t>
+  </si>
+  <si>
+    <t>n/a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,13 +374,44 @@
       <color theme="1"/>
       <name val="Montserrat ExtraBold"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="Montserrat ExtraBold"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="Montserrat ExtraBold"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="Montserrat ExtraBold"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Montserrat ExtraBold"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Montserrat SemiBold"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -454,7 +503,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -479,13 +528,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="4"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="5"/>
     </xf>
@@ -527,6 +570,40 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -534,63 +611,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Montserrat ExtraBold"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Montserrat ExtraBold"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -682,6 +702,63 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Montserrat ExtraBold"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Montserrat ExtraBold"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -696,12 +773,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{49520C1B-E0C2-42C5-8733-88C2D03AE7DF}" name="Table1" displayName="Table1" ref="B5:D47" totalsRowShown="0" headerRowDxfId="0" dataDxfId="4" headerRowBorderDxfId="2" tableBorderDxfId="3" totalsRowBorderDxfId="1">
-  <autoFilter ref="B5:D47" xr:uid="{4C891F55-F5A1-48D5-8794-2F25631D2DD1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{49520C1B-E0C2-42C5-8733-88C2D03AE7DF}" name="Table1" displayName="Table1" ref="B5:D48" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="B5:D48" xr:uid="{4C891F55-F5A1-48D5-8794-2F25631D2DD1}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{7708AD36-5AB8-44E3-86D4-D18F00AC08AC}" name="Page Title" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{03A99E75-BD8D-4C0A-940D-C30B4B84805E}" name="Old Output URI" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{4D7DABAC-563C-4DAA-9EA9-B2FBBE18B1ED}" name="New Output URI" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{7708AD36-5AB8-44E3-86D4-D18F00AC08AC}" name="Page Title" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{03A99E75-BD8D-4C0A-940D-C30B4B84805E}" name="Old Output URI" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{4D7DABAC-563C-4DAA-9EA9-B2FBBE18B1ED}" name="New Output URI" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1004,47 +1081,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B270E70-E495-4B76-ADB4-074722D1DDE3}">
-  <dimension ref="B2:D47"/>
+  <dimension ref="B2:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="36.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="60.08984375" customWidth="1"/>
+    <col min="3" max="3" width="62.36328125" customWidth="1"/>
     <col min="4" max="4" width="44.1796875" customWidth="1"/>
     <col min="5" max="5" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="15" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="15" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="15" x14ac:dyDescent="0.35">
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="2:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="25" t="s">
+      <c r="B5" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="24" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B6" s="3" t="s">
-        <v>44</v>
+      <c r="B6" s="34" t="s">
+        <v>43</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>2</v>
@@ -1055,7 +1132,7 @@
     </row>
     <row r="7" spans="2:4" ht="15" x14ac:dyDescent="0.4">
       <c r="B7" s="6" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>4</v>
@@ -1065,41 +1142,41 @@
       </c>
     </row>
     <row r="8" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B8" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="18" t="s">
+      <c r="B8" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B9" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="18" t="s">
+      <c r="B9" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B10" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="16" t="s">
+      <c r="B10" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="15" x14ac:dyDescent="0.4">
       <c r="B11" s="6" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>11</v>
@@ -1110,7 +1187,7 @@
     </row>
     <row r="12" spans="2:4" ht="15" x14ac:dyDescent="0.4">
       <c r="B12" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>6</v>
@@ -1120,8 +1197,8 @@
       </c>
     </row>
     <row r="13" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B13" s="3" t="s">
-        <v>52</v>
+      <c r="B13" s="34" t="s">
+        <v>48</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>14</v>
@@ -1131,8 +1208,8 @@
       </c>
     </row>
     <row r="14" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B14" s="6" t="s">
-        <v>53</v>
+      <c r="B14" s="33" t="s">
+        <v>49</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>16</v>
@@ -1142,345 +1219,377 @@
       </c>
     </row>
     <row r="15" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B15" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="16" t="s">
+      <c r="B15" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="15" x14ac:dyDescent="0.4">
       <c r="B16" s="3"/>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>21</v>
+      <c r="D16" s="26" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="15" x14ac:dyDescent="0.4">
       <c r="B17" s="3"/>
-      <c r="C17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>27</v>
+      <c r="C17" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="15" x14ac:dyDescent="0.4">
       <c r="B18" s="3"/>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="11" t="s">
+    </row>
+    <row r="19" spans="2:4" ht="15" x14ac:dyDescent="0.4">
+      <c r="B19" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B19" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="D19" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="15" x14ac:dyDescent="0.4">
       <c r="B20" s="3"/>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="10" t="s">
+    </row>
+    <row r="21" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="8" t="s">
+    </row>
+    <row r="22" spans="2:4" ht="15" x14ac:dyDescent="0.4">
+      <c r="B22" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B22" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="13" t="s">
+      <c r="D22" s="12" t="s">
         <v>30</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="15" x14ac:dyDescent="0.4">
       <c r="B23" s="3"/>
-      <c r="C23" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>27</v>
+      <c r="C23" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="15" x14ac:dyDescent="0.4">
       <c r="B24" s="3"/>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>27</v>
+      <c r="D24" s="26" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="3"/>
-      <c r="C25" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>27</v>
+      <c r="C25" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="15" x14ac:dyDescent="0.4">
       <c r="B26" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="15" x14ac:dyDescent="0.4">
       <c r="B27" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="15" x14ac:dyDescent="0.4">
       <c r="B28" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="15" x14ac:dyDescent="0.4">
+      <c r="B29" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B29" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="17" t="s">
+    <row r="30" spans="2:4" ht="15" x14ac:dyDescent="0.4">
+      <c r="B30" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B30" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="18" t="s">
+    <row r="31" spans="2:4" ht="15" x14ac:dyDescent="0.4">
+      <c r="B31" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D31" s="15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B31" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="17" t="s">
+    <row r="32" spans="2:4" ht="15" x14ac:dyDescent="0.4">
+      <c r="B32" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="32" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B32" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="4" t="s">
+      <c r="D32" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="15" x14ac:dyDescent="0.4">
       <c r="B33" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B34" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" s="18" t="s">
+      <c r="B34" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="20" t="s">
-        <v>69</v>
+      <c r="D34" s="18" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="15" x14ac:dyDescent="0.4">
       <c r="B35" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D35" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="15" x14ac:dyDescent="0.4">
+      <c r="B36" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="15" x14ac:dyDescent="0.4">
+      <c r="B37" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="15" x14ac:dyDescent="0.4">
+      <c r="B38" s="17" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B36" s="19" t="s">
+      <c r="C38" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B37" s="19" t="s">
+    </row>
+    <row r="39" spans="2:4" ht="15" x14ac:dyDescent="0.4">
+      <c r="B39" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="20" t="s">
+      <c r="C39" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="38" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B38" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="20" t="s">
+      <c r="D39" s="20" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B39" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D39" s="22" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="15" x14ac:dyDescent="0.4">
       <c r="B40" s="6"/>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="10" t="s">
-        <v>27</v>
+      <c r="D40" s="26" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="15" x14ac:dyDescent="0.4">
       <c r="B41" s="6"/>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="10" t="s">
-        <v>27</v>
+      <c r="D41" s="26" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="15" x14ac:dyDescent="0.4">
       <c r="B42" s="6"/>
-      <c r="C42" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>27</v>
+      <c r="C42" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B43" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C43" s="18" t="s">
+      <c r="B43" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D43" s="17" t="s">
-        <v>82</v>
+      <c r="D43" s="15" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B44" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C44" s="18" t="s">
+      <c r="B44" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D44" s="17" t="s">
-        <v>81</v>
+      <c r="D44" s="15" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="15" x14ac:dyDescent="0.4">
       <c r="B45" s="3"/>
-      <c r="C45" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>27</v>
+      <c r="C45" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="2:4" ht="15" x14ac:dyDescent="0.4">
       <c r="B46" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C46" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="D46" s="22" t="s">
-        <v>85</v>
+        <v>79</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" ht="15" x14ac:dyDescent="0.4">
+      <c r="B48" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" s="40" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B50" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="C47" s="4" t="s">
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B51" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="D47" s="22" t="s">
-        <v>87</v>
-      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B52" s="32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B53" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53" s="37"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/CS Website Updated URIs.xlsx
+++ b/CS Website Updated URIs.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="97">
   <si>
     <t>Old Output URI</t>
   </si>
@@ -41,111 +41,27 @@
     <t>undergraduate/</t>
   </si>
   <si>
-    <t>…/bs-in-computer-science/</t>
-  </si>
-  <si>
-    <t>…/bscs/</t>
-  </si>
-  <si>
     <t>(new)</t>
   </si>
   <si>
-    <t>…/bscs-math/</t>
-  </si>
-  <si>
-    <t>…/bscs-business/</t>
-  </si>
-  <si>
-    <t>…/fasttrack-mscs/</t>
-  </si>
-  <si>
-    <t>…/fast-track/</t>
-  </si>
-  <si>
-    <t>…/ba-in-computer-science/</t>
-  </si>
-  <si>
-    <t>…/bacs/</t>
-  </si>
-  <si>
-    <t>…/transfer/</t>
-  </si>
-  <si>
     <t>graduate-degrees/</t>
   </si>
   <si>
     <t>graduate/</t>
   </si>
   <si>
-    <t>…/master-of-science-in-computer-science/</t>
-  </si>
-  <si>
-    <t>…/mscs/</t>
-  </si>
-  <si>
-    <t>…/master-of-software-engineering/</t>
-  </si>
-  <si>
-    <t>…/mse/</t>
-  </si>
-  <si>
-    <t>…/admission-requirements/</t>
-  </si>
-  <si>
-    <t>…/graduate-projects/</t>
-  </si>
-  <si>
-    <t>…/internship-guide/</t>
-  </si>
-  <si>
     <t>(moved – see under student-resources/)</t>
   </si>
   <si>
     <t>certificates/</t>
   </si>
   <si>
-    <t>…/career-change-path-to-masters-degree/</t>
-  </si>
-  <si>
     <t>(obsolete)</t>
   </si>
   <si>
-    <t>…/graduate-certificate-in-computer-science-fundamentals/</t>
-  </si>
-  <si>
-    <t>…/cs-fundamentals/</t>
-  </si>
-  <si>
-    <t>…/programming-boot-camp/</t>
-  </si>
-  <si>
-    <t>.../bootcamp/</t>
-  </si>
-  <si>
-    <t>…/frequently-asked-questions/</t>
-  </si>
-  <si>
-    <t>…/graduate-certificates-in-software-engineering/</t>
-  </si>
-  <si>
-    <t>…/software-architecture/</t>
-  </si>
-  <si>
-    <t>…/software-management/</t>
-  </si>
-  <si>
     <t>student-resources/</t>
   </si>
   <si>
-    <t>…/internships/</t>
-  </si>
-  <si>
-    <t>…/mentorship/</t>
-  </si>
-  <si>
-    <t>…/study-abroad/</t>
-  </si>
-  <si>
     <t>student-activites/</t>
   </si>
   <si>
@@ -212,18 +128,9 @@
     <t>Alumni</t>
   </si>
   <si>
-    <t>…/news/</t>
-  </si>
-  <si>
-    <t>…/alumni/</t>
-  </si>
-  <si>
     <t>News Articles</t>
   </si>
   <si>
-    <t>…/articles</t>
-  </si>
-  <si>
     <t>Join the Mailing List</t>
   </si>
   <si>
@@ -233,15 +140,6 @@
     <t>Form Failure</t>
   </si>
   <si>
-    <t>…/join/</t>
-  </si>
-  <si>
-    <t>…/thank-you/</t>
-  </si>
-  <si>
-    <t>…/form-failure/</t>
-  </si>
-  <si>
     <t>Student Projects</t>
   </si>
   <si>
@@ -257,15 +155,6 @@
     <t>projects/</t>
   </si>
   <si>
-    <t>…/research/</t>
-  </si>
-  <si>
-    <t>…/industry-sponsored/</t>
-  </si>
-  <si>
-    <t>.../undergraduate-projects/</t>
-  </si>
-  <si>
     <t>Learning Outcomes</t>
   </si>
   <si>
@@ -290,9 +179,6 @@
     <t>Black Text = Page is visible on LHS menu</t>
   </si>
   <si>
-    <t>Grey Text = Page is clickable from parent page but not visible on LHS menu</t>
-  </si>
-  <si>
     <t>Red Text = obsolete page (to be deleted)</t>
   </si>
   <si>
@@ -315,6 +201,123 @@
   </si>
   <si>
     <t>n/a</t>
+  </si>
+  <si>
+    <t>bs-in-computer-science/</t>
+  </si>
+  <si>
+    <t>fasttrack-mscs/</t>
+  </si>
+  <si>
+    <t>ba-in-computer-science/</t>
+  </si>
+  <si>
+    <t>master-of-science-in-computer-science/</t>
+  </si>
+  <si>
+    <t>master-of-software-engineering/</t>
+  </si>
+  <si>
+    <t>admission-requirements/</t>
+  </si>
+  <si>
+    <t>graduate-projects/</t>
+  </si>
+  <si>
+    <t>internship-guide/</t>
+  </si>
+  <si>
+    <t>career-change-path-to-masters-degree/</t>
+  </si>
+  <si>
+    <t>graduate-certificate-in-computer-science-fundamentals/</t>
+  </si>
+  <si>
+    <t>programming-boot-camp/</t>
+  </si>
+  <si>
+    <t>frequently-asked-questions/</t>
+  </si>
+  <si>
+    <t>graduate-certificates-in-software-engineering/</t>
+  </si>
+  <si>
+    <t>mse/</t>
+  </si>
+  <si>
+    <t>mscs/</t>
+  </si>
+  <si>
+    <t>undergraduate-projects/</t>
+  </si>
+  <si>
+    <t>bscs/</t>
+  </si>
+  <si>
+    <t>bscs-math/</t>
+  </si>
+  <si>
+    <t>bscs-business/</t>
+  </si>
+  <si>
+    <t>bacs/</t>
+  </si>
+  <si>
+    <t>transfer/</t>
+  </si>
+  <si>
+    <t>cs-fundamentals/</t>
+  </si>
+  <si>
+    <t>bootcamp/</t>
+  </si>
+  <si>
+    <t>software-architecture/</t>
+  </si>
+  <si>
+    <t>software-management/</t>
+  </si>
+  <si>
+    <t>internships/</t>
+  </si>
+  <si>
+    <t>mentorship/</t>
+  </si>
+  <si>
+    <t>study-abroad/</t>
+  </si>
+  <si>
+    <t>news/</t>
+  </si>
+  <si>
+    <t>articles</t>
+  </si>
+  <si>
+    <t>alumni/</t>
+  </si>
+  <si>
+    <t>join/</t>
+  </si>
+  <si>
+    <t>thank-you/</t>
+  </si>
+  <si>
+    <t>form-failure/</t>
+  </si>
+  <si>
+    <t>industry-sponsored/</t>
+  </si>
+  <si>
+    <t>research/</t>
+  </si>
+  <si>
+    <t>fast-track-ms/</t>
+  </si>
+  <si>
+    <t>Old URI Changed/ Redirected?</t>
+  </si>
+  <si>
+    <t>Grey Text = Page is reachable from parent page but not visible on LHS menu</t>
   </si>
 </sst>
 </file>
@@ -400,7 +403,7 @@
       <name val="Montserrat SemiBold"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,8 +416,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -498,12 +507,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -520,39 +538,18 @@
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="4"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="4"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -571,20 +568,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="4"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -605,12 +596,67 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="6"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Montserrat ExtraBold"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -773,12 +819,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{49520C1B-E0C2-42C5-8733-88C2D03AE7DF}" name="Table1" displayName="Table1" ref="B5:D48" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="B5:D48" xr:uid="{4C891F55-F5A1-48D5-8794-2F25631D2DD1}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{7708AD36-5AB8-44E3-86D4-D18F00AC08AC}" name="Page Title" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{03A99E75-BD8D-4C0A-940D-C30B4B84805E}" name="Old Output URI" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{4D7DABAC-563C-4DAA-9EA9-B2FBBE18B1ED}" name="New Output URI" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{49520C1B-E0C2-42C5-8733-88C2D03AE7DF}" name="Table1" displayName="Table1" ref="B5:E48" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="B5:E48" xr:uid="{4C891F55-F5A1-48D5-8794-2F25631D2DD1}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{7708AD36-5AB8-44E3-86D4-D18F00AC08AC}" name="Page Title" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{03A99E75-BD8D-4C0A-940D-C30B4B84805E}" name="Old Output URI" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{4D7DABAC-563C-4DAA-9EA9-B2FBBE18B1ED}" name="New Output URI" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{D71CF5B7-AA5D-454B-9DC0-489103EF4562}" name="Old URI Changed/ Redirected?" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1081,10 +1128,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B270E70-E495-4B76-ADB4-074722D1DDE3}">
-  <dimension ref="B2:D53"/>
+  <dimension ref="B2:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -1092,36 +1139,39 @@
     <col min="2" max="2" width="36.1796875" style="1" customWidth="1"/>
     <col min="3" max="3" width="62.36328125" customWidth="1"/>
     <col min="4" max="4" width="44.1796875" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" customWidth="1"/>
+    <col min="5" max="5" width="15.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" ht="15" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="15" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="15" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="15" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="15" x14ac:dyDescent="0.35">
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="2:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="23" t="s">
+    <row r="5" spans="2:5" ht="49" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="17" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B6" s="34" t="s">
-        <v>43</v>
+      <c r="E5" s="43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="15" x14ac:dyDescent="0.4">
+      <c r="B6" s="25" t="s">
+        <v>15</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>2</v>
@@ -1129,467 +1179,513 @@
       <c r="D6" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" ht="15" x14ac:dyDescent="0.4">
+      <c r="E6" s="42"/>
+    </row>
+    <row r="7" spans="2:5" ht="15" x14ac:dyDescent="0.4">
       <c r="B7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="42"/>
+    </row>
+    <row r="8" spans="2:5" ht="15" x14ac:dyDescent="0.4">
+      <c r="B8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="44"/>
+    </row>
+    <row r="9" spans="2:5" ht="15" x14ac:dyDescent="0.4">
+      <c r="B9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="44"/>
+    </row>
+    <row r="10" spans="2:5" ht="15" x14ac:dyDescent="0.4">
+      <c r="B10" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="42"/>
+    </row>
+    <row r="11" spans="2:5" ht="15" x14ac:dyDescent="0.4">
+      <c r="B11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="42"/>
+    </row>
+    <row r="12" spans="2:5" ht="15" x14ac:dyDescent="0.4">
+      <c r="B12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="44"/>
+    </row>
+    <row r="13" spans="2:5" ht="15" x14ac:dyDescent="0.4">
+      <c r="B13" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="42"/>
+    </row>
+    <row r="14" spans="2:5" ht="15" x14ac:dyDescent="0.4">
+      <c r="B14" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="42"/>
+    </row>
+    <row r="15" spans="2:5" ht="15" x14ac:dyDescent="0.4">
+      <c r="B15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="42"/>
+    </row>
+    <row r="16" spans="2:5" ht="15" x14ac:dyDescent="0.4">
+      <c r="B16" s="3"/>
+      <c r="C16" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="42"/>
+    </row>
+    <row r="17" spans="2:5" ht="15" x14ac:dyDescent="0.4">
+      <c r="B17" s="3"/>
+      <c r="C17" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="42"/>
+    </row>
+    <row r="18" spans="2:5" ht="15" x14ac:dyDescent="0.4">
+      <c r="B18" s="3"/>
+      <c r="C18" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="42"/>
+    </row>
+    <row r="19" spans="2:5" ht="15" x14ac:dyDescent="0.4">
+      <c r="B19" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="42"/>
+    </row>
+    <row r="20" spans="2:5" ht="15" x14ac:dyDescent="0.4">
+      <c r="B20" s="3"/>
+      <c r="C20" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="42"/>
+    </row>
+    <row r="21" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="42"/>
+    </row>
+    <row r="22" spans="2:5" ht="15" x14ac:dyDescent="0.4">
+      <c r="B22" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="42"/>
+    </row>
+    <row r="23" spans="2:5" ht="15" x14ac:dyDescent="0.4">
+      <c r="B23" s="3"/>
+      <c r="C23" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="42"/>
+    </row>
+    <row r="24" spans="2:5" ht="15" x14ac:dyDescent="0.4">
+      <c r="B24" s="3"/>
+      <c r="C24" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="42"/>
+    </row>
+    <row r="25" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="3"/>
+      <c r="C25" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="42"/>
+    </row>
+    <row r="26" spans="2:5" ht="15" x14ac:dyDescent="0.4">
+      <c r="B26" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="44"/>
+    </row>
+    <row r="27" spans="2:5" ht="15" x14ac:dyDescent="0.4">
+      <c r="B27" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="44"/>
+    </row>
+    <row r="28" spans="2:5" ht="15" x14ac:dyDescent="0.4">
+      <c r="B28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="44"/>
+    </row>
+    <row r="29" spans="2:5" ht="15" x14ac:dyDescent="0.4">
+      <c r="B29" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="42"/>
+    </row>
+    <row r="30" spans="2:5" ht="15" x14ac:dyDescent="0.4">
+      <c r="B30" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="44"/>
+    </row>
+    <row r="31" spans="2:5" ht="15" x14ac:dyDescent="0.4">
+      <c r="B31" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="44"/>
+    </row>
+    <row r="32" spans="2:5" ht="15" x14ac:dyDescent="0.4">
+      <c r="B32" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="42"/>
+    </row>
+    <row r="33" spans="2:5" ht="15" x14ac:dyDescent="0.4">
+      <c r="B33" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="44"/>
+    </row>
+    <row r="34" spans="2:5" ht="15" x14ac:dyDescent="0.4">
+      <c r="B34" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" s="44"/>
+    </row>
+    <row r="35" spans="2:5" ht="15" x14ac:dyDescent="0.4">
+      <c r="B35" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" s="44"/>
+    </row>
+    <row r="36" spans="2:5" ht="15" x14ac:dyDescent="0.4">
+      <c r="B36" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="44"/>
+    </row>
+    <row r="37" spans="2:5" ht="15" x14ac:dyDescent="0.4">
+      <c r="B37" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="E37" s="44"/>
+    </row>
+    <row r="38" spans="2:5" ht="15" x14ac:dyDescent="0.4">
+      <c r="B38" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B8" s="13" t="s">
+      <c r="D38" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" s="44"/>
+    </row>
+    <row r="39" spans="2:5" ht="15" x14ac:dyDescent="0.4">
+      <c r="B39" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="42"/>
+    </row>
+    <row r="40" spans="2:5" ht="15" x14ac:dyDescent="0.4">
+      <c r="B40" s="6"/>
+      <c r="C40" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="42"/>
+    </row>
+    <row r="41" spans="2:5" ht="15" x14ac:dyDescent="0.4">
+      <c r="B41" s="6"/>
+      <c r="C41" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="42"/>
+    </row>
+    <row r="42" spans="2:5" ht="15" x14ac:dyDescent="0.4">
+      <c r="B42" s="6"/>
+      <c r="C42" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="42"/>
+    </row>
+    <row r="43" spans="2:5" ht="15" x14ac:dyDescent="0.4">
+      <c r="B43" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E43" s="44"/>
+    </row>
+    <row r="44" spans="2:5" ht="15" x14ac:dyDescent="0.4">
+      <c r="B44" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="E44" s="44"/>
+    </row>
+    <row r="45" spans="2:5" ht="15" x14ac:dyDescent="0.4">
+      <c r="B45" s="3"/>
+      <c r="C45" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="42"/>
+    </row>
+    <row r="46" spans="2:5" ht="15" x14ac:dyDescent="0.4">
+      <c r="B46" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" s="42"/>
+    </row>
+    <row r="47" spans="2:5" ht="15" x14ac:dyDescent="0.4">
+      <c r="B47" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B9" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B10" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B11" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B13" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B14" s="33" t="s">
+      <c r="D47" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E47" s="42"/>
+    </row>
+    <row r="48" spans="2:5" ht="15" x14ac:dyDescent="0.4">
+      <c r="B48" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="E48" s="42"/>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B50" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B15" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B16" s="3"/>
-      <c r="C16" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B17" s="3"/>
-      <c r="C17" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B18" s="3"/>
-      <c r="C18" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B19" s="34" t="s">
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B51" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B52" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B20" s="3"/>
-      <c r="C20" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B22" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B23" s="3"/>
-      <c r="C23" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B24" s="3"/>
-      <c r="C24" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="3"/>
-      <c r="C25" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B26" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B27" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B28" s="3" t="s">
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B53" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B29" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B30" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B31" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B32" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B33" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B34" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B35" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B36" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B37" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B38" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B39" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B40" s="6"/>
-      <c r="C40" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B41" s="6"/>
-      <c r="C41" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B42" s="6"/>
-      <c r="C42" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="D42" s="26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B43" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B44" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B45" s="3"/>
-      <c r="C45" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="D45" s="26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B46" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B47" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D47" s="20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B48" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="C48" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="D48" s="40" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B50" s="30" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B51" s="31" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B52" s="32" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B53" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="C53" s="37"/>
+      <c r="C53" s="28"/>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C63" s="32"/>
     </row>
   </sheetData>
   <hyperlinks>
